--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Woźniak.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Woźniak.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:14:47.40</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.51027083334</v>
       </c>
       <c r="B2" t="n">
         <v>4482.2</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:52:45.40</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.53663657408</v>
       </c>
       <c r="B3" t="n">
         <v>6760.2</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:54:14.80</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.5376712963</v>
       </c>
       <c r="B4" t="n">
         <v>6849.6</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:14:47.20</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.51026851852</v>
       </c>
       <c r="B5" t="n">
         <v>4482</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:50:03.50</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.53476273148</v>
       </c>
       <c r="B6" t="n">
         <v>6598.3</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:52:45.20</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.53663425926</v>
       </c>
       <c r="B7" t="n">
         <v>6760</v>
@@ -585,382 +607,765 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:25:09.52</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684.59234166667</v>
       </c>
       <c r="B8" t="n">
+        <v>578.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.64991353239332</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.5925650463</v>
+      </c>
+      <c r="B9" t="n">
+        <v>597.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.001077464648655</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59322592593</v>
+      </c>
+      <c r="B10" t="n">
+        <v>654.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.665620037487576</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59073518519</v>
+      </c>
+      <c r="B11" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.600568413734434</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59093888889</v>
+      </c>
+      <c r="B12" t="n">
+        <v>457.1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.652362687247141</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59256273148</v>
+      </c>
+      <c r="B13" t="n">
+        <v>597.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.043854781559534</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.60080462963</v>
+      </c>
+      <c r="B14" t="n">
         <v>1309.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>14.89</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>3.255911588668824</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:30:48.72</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60174675926</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1390.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.104380096708025</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60473055555</v>
+      </c>
+      <c r="B16" t="n">
         <v>1648.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>14.34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>3.56577604157584</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:55:20.02</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3120</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.549620798655918</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:36:42.92</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2002.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.966688701084681</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:55:19.72</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3119.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.029006072453091</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:08:23.52</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3903.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.988345384597781</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:33:13.38</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59967962963</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1212.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.569038936070033</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.6008</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1309.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.441896906920842</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60174212963</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1390.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.58960109097617</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64807152778</v>
+      </c>
+      <c r="B20" t="n">
         <v>1108.3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>12.72</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>3.804428781781875</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:10.78</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.64943032408</v>
+      </c>
+      <c r="B21" t="n">
         <v>1225.7</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>12.96</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>3.773029088973998</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:18.68</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.65091064815</v>
+      </c>
+      <c r="B22" t="n">
         <v>1353.6</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>14.23</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>4.09222231592451</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:26:47.28</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>722.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.478379658290318</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:10.48</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64806805555</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.391879796981811</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64942685185</v>
+      </c>
+      <c r="B24" t="n">
         <v>1225.4</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>3.395541429519651</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:18.38</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.65090717593</v>
+      </c>
+      <c r="B25" t="n">
         <v>1353.3</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>3.593167849949429</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:25:07.58</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.6674199074</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.664245332990375</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67531342593</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3462</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.076576471328735</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.68058773148</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3917.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.130322422300065</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66741643519</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2779.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.893186858722143</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.66908888889</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2924.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.822287797927857</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.68470462963</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4273.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.978939294815061</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47578217593</v>
+      </c>
+      <c r="B32" t="n">
         <v>1155.4</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C32" t="n">
         <v>10.08</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D32" t="n">
         <v>0.6659171623843056</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:28:24.48</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47806111111</v>
+      </c>
+      <c r="B33" t="n">
         <v>1352.3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C33" t="n">
         <v>10.01</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D33" t="n">
         <v>0.3036585418241365</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:28:27.18</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47809236111</v>
+      </c>
+      <c r="B34" t="n">
         <v>1355</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C34" t="n">
         <v>10.76</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D34" t="n">
         <v>0.328371586544173</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:25:06.58</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47577060185</v>
+      </c>
+      <c r="B35" t="n">
         <v>1154.4</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C35" t="n">
         <v>6.51</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D35" t="n">
         <v>1.633907641683307</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:26:02.38</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.47641643519</v>
+      </c>
+      <c r="B36" t="n">
         <v>1210.2</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C36" t="n">
         <v>5.06</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D36" t="n">
         <v>1.885496752602714</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>29.01.2025 11:26:40.38</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.47685625</v>
+      </c>
+      <c r="B37" t="n">
         <v>1248.2</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C37" t="n">
         <v>6.27</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D37" t="n">
         <v>2.091243454388209</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
